--- a/laredo/series_temporais/sclomps.xlsx
+++ b/laredo/series_temporais/sclomps.xlsx
@@ -9,14 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24630" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="sclomps" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_ATPRand1_Dlg_Results" localSheetId="0" hidden="1">{2;#N/A;"R1C5:R28C5";#N/A;1;#N/A;28;#N/A;1;#N/A;#N/A;-50;#N/A;50;#N/A;#N/A;#N/A;#N/A;#N/A}</definedName>
     <definedName name="_ATPRand1_Dlg_Types" localSheetId="0" hidden="1">{"EXCELHLP.HLP!1794";5;10;5;7;5;7;5;121;14;5;8;5;8;5;8;1;2;24}</definedName>
@@ -36,6 +33,39 @@
     <definedName name="Rank_Hired">#REF!</definedName>
     <definedName name="Salary">#REF!</definedName>
     <definedName name="Sex">#REF!</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">sclomps!$L$25:$L$27</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">sclomps!$L$25:$L$27</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">sclomps!$L$25:$L$27</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">sclomps!$J$29</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="SPSS">#REF!</definedName>
     <definedName name="Weight">#REF!</definedName>
     <definedName name="Year">#REF!</definedName>
@@ -51,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>DATA</t>
   </si>
@@ -64,12 +94,39 @@
   <si>
     <t>VENDAS</t>
   </si>
+  <si>
+    <t>gama:</t>
+  </si>
+  <si>
+    <t>beta:</t>
+  </si>
+  <si>
+    <t>alpha:</t>
+  </si>
+  <si>
+    <t>Lt</t>
+  </si>
+  <si>
+    <t>Tt</t>
+  </si>
+  <si>
+    <t>St</t>
+  </si>
+  <si>
+    <t>Ft+1</t>
+  </si>
+  <si>
+    <t>erro^2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,16 +139,42 @@
       <name val="MS Sans Serif"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -99,21 +182,212 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -192,7 +466,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>sclomps!$D$2:$D$29</c:f>
+              <c:f>sclomps!$D$6:$D$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -287,6 +561,226 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6EA1-448D-A1AF-3271EE97D235}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sclomps!$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ft+1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="6350" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>sclomps!$B$8:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>sclomps!$E$8:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>990.13878381345319</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>995.21887958104048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1158.9955461452569</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1154.6101041246905</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1107.2014940548947</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1107.431146822832</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1219.6676559861069</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1166.3307856944616</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1096.877547423358</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1071.7641267002559</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1216.626091374018</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1175.4747980530728</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1120.4519702323159</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1083.8356016349398</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1175.1566325486747</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1098.3501748810747</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1068.6956505452142</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1077.7238925135705</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1213.0040702946715</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1186.7306732688889</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1127.8054565756222</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1058.4540136592461</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200.1216054034296</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1182.5612066321862</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1121.6827694586743</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3F9E-4C1D-A6C5-0AEEC5D7F993}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1030,16 +1524,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1061,219 +1555,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="0.LENEX"/>
-      <sheetName val="0.ST(2)"/>
-      <sheetName val="0.ST(3)"/>
-      <sheetName val="0.ST(4)"/>
-      <sheetName val="KINGS"/>
-      <sheetName val="PIBGROW"/>
-      <sheetName val="IGP-M "/>
-      <sheetName val="IGV"/>
-      <sheetName val="CASAMENTO IPIRANGA"/>
-      <sheetName val="CARTÂO"/>
-      <sheetName val="PIBMENSAL"/>
-      <sheetName val=" ITAU HOLT"/>
-      <sheetName val="FGV PREVI"/>
-      <sheetName val="EXPLAS"/>
-      <sheetName val="JAPÃO"/>
-      <sheetName val="souvenirs"/>
-      <sheetName val="Motel Nine"/>
-      <sheetName val="SEPT 11"/>
-      <sheetName val="DRINK OLD"/>
-      <sheetName val="Champagne"/>
-      <sheetName val="EMPLOY"/>
-      <sheetName val="IPCA"/>
-      <sheetName val="SERIES ECONOMICAS"/>
-      <sheetName val="AÇÔES "/>
-      <sheetName val="ST(1)"/>
-      <sheetName val="ST(5)"/>
-      <sheetName val="ST(7)"/>
-      <sheetName val="ST(8)"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="1">
-          <cell r="D1" t="str">
-            <v>VENDAS</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="D2">
-            <v>1274</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="D3">
-            <v>1140</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>1101</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>1144</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>1284</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>1147</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8">
-            <v>1135</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9">
-            <v>1123</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10">
-            <v>1256</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="D11">
-            <v>1120</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="D12">
-            <v>1077</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="D13">
-            <v>1089</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="D14">
-            <v>1275</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="D15">
-            <v>1130</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="D16">
-            <v>1098</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="D17">
-            <v>1089</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="D18">
-            <v>1219</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="D19">
-            <v>1063</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="D20">
-            <v>1078</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="D21">
-            <v>1102</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="D22">
-            <v>1256</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="D23">
-            <v>1139</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="D24">
-            <v>1095</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="D25">
-            <v>1051</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="D26">
-            <v>1264</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="D27">
-            <v>1148</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="D28">
-            <v>1093</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="D29">
-            <v>1077</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1542,425 +1823,1019 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="2" width="9.140625" style="16"/>
+    <col min="3" max="3" width="10.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="16"/>
+    <col min="5" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="H2" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="H3" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="H4" s="17">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="H5" s="17">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>1986</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1274</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>1986</v>
+      </c>
+      <c r="B7" s="9">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9">
+        <v>2</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1140</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="20">
+        <f>D7</f>
+        <v>1140</v>
+      </c>
+      <c r="G7" s="20">
+        <f>D7-D6</f>
+        <v>-134</v>
+      </c>
+      <c r="H7" s="20">
+        <f>$L$27*(D7-F7)+(1-$L$27)*H3</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>1986</v>
+      </c>
+      <c r="B8" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="C8" s="9">
+        <v>3</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1101</v>
+      </c>
+      <c r="E8" s="20">
+        <f>F7+G7+H7</f>
+        <v>1006</v>
+      </c>
+      <c r="F8" s="20">
+        <f>$L$25*(D8-H4)+(1-$L$25)*(F7+G7)</f>
+        <v>1059.407572352648</v>
+      </c>
+      <c r="G8" s="20">
+        <f>$L$26*(F8-F7)+(1-$L$26)*G7</f>
+        <v>-110.86121618654683</v>
+      </c>
+      <c r="H8" s="20">
+        <f>L27*(D8-F8)+(1-$L$27)*H4</f>
+        <v>41.592427647351997</v>
+      </c>
+      <c r="I8" s="21">
+        <f>(E8-D8)^2</f>
+        <v>9025</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
+        <v>1986</v>
+      </c>
+      <c r="B9" s="12">
+        <v>4</v>
+      </c>
+      <c r="C9" s="12">
+        <v>4</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1144</v>
+      </c>
+      <c r="E9" s="20">
+        <f>F8+G8+H8</f>
+        <v>990.13878381345319</v>
+      </c>
+      <c r="F9" s="20">
+        <f>$L$25*(D9-H5)+(1-$L$25)*(F8+G8)</f>
+        <v>1058.4600740378282</v>
+      </c>
+      <c r="G9" s="20">
+        <f>$L$26*(F9-F8)+(1-$L$26)*G8</f>
+        <v>-63.241194456787788</v>
+      </c>
+      <c r="H9" s="20">
+        <f>L28*(D9-F9)+(1-$L$27)*H5</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="21">
+        <f t="shared" ref="I9:I29" si="0">(E9-D9)^2</f>
+        <v>23673.273846403295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>1987</v>
+      </c>
+      <c r="B10" s="6">
+        <v>5</v>
+      </c>
+      <c r="C10" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>1986</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="D10" s="7">
+        <v>1284</v>
+      </c>
+      <c r="E10" s="20">
+        <f t="shared" ref="E10:E33" si="1">F9+G9+H9</f>
+        <v>995.21887958104048</v>
+      </c>
+      <c r="F10" s="20">
+        <f t="shared" ref="F10:F33" si="2">$L$25*(D10-H6)+(1-$L$25)*(F9+G9)</f>
+        <v>1153.6127397866558</v>
+      </c>
+      <c r="G10" s="20">
+        <f t="shared" ref="G10:G33" si="3">$L$26*(F10-F9)+(1-$L$26)*G9</f>
+        <v>5.3828063586010515</v>
+      </c>
+      <c r="H10" s="20">
+        <f t="shared" ref="H10:H33" si="4">L29*(D10-F10)+(1-$L$27)*H6</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="21">
+        <f t="shared" si="0"/>
+        <v>83394.535510429603</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <v>1987</v>
+      </c>
+      <c r="B11" s="9">
+        <v>6</v>
+      </c>
+      <c r="C11" s="9">
+        <v>2</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1147</v>
+      </c>
+      <c r="E11" s="20">
+        <f t="shared" si="1"/>
+        <v>1158.9955461452569</v>
+      </c>
+      <c r="F11" s="20">
+        <f t="shared" si="2"/>
+        <v>1152.1800887126788</v>
+      </c>
+      <c r="G11" s="20">
+        <f t="shared" si="3"/>
+        <v>2.4300154120116702</v>
+      </c>
+      <c r="H11" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="21">
+        <f t="shared" si="0"/>
+        <v>143.89312732298689</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <v>1987</v>
+      </c>
+      <c r="B12" s="9">
+        <v>7</v>
+      </c>
+      <c r="C12" s="9">
+        <v>3</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1135</v>
+      </c>
+      <c r="E12" s="20">
+        <f t="shared" si="1"/>
+        <v>1154.6101041246905</v>
+      </c>
+      <c r="F12" s="20">
+        <f t="shared" si="2"/>
+        <v>1119.8369270631947</v>
+      </c>
+      <c r="G12" s="20">
+        <f t="shared" si="3"/>
+        <v>-12.635433008299922</v>
+      </c>
+      <c r="H12" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="21">
+        <f t="shared" si="0"/>
+        <v>384.55618378120147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <v>1987</v>
+      </c>
+      <c r="B13" s="12">
+        <v>8</v>
+      </c>
+      <c r="C13" s="12">
+        <v>4</v>
+      </c>
+      <c r="D13" s="13">
+        <v>1123</v>
+      </c>
+      <c r="E13" s="20">
+        <f t="shared" si="1"/>
+        <v>1107.2014940548947</v>
+      </c>
+      <c r="F13" s="20">
+        <f t="shared" si="2"/>
+        <v>1116.1776626647559</v>
+      </c>
+      <c r="G13" s="20">
+        <f t="shared" si="3"/>
+        <v>-8.746515841923939</v>
+      </c>
+      <c r="H13" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="21">
+        <f t="shared" si="0"/>
+        <v>249.59279009752632</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>1988</v>
+      </c>
+      <c r="B14" s="6">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="D14" s="7">
+        <v>1256</v>
+      </c>
+      <c r="E14" s="20">
+        <f t="shared" si="1"/>
+        <v>1107.431146822832</v>
+      </c>
+      <c r="F14" s="20">
+        <f t="shared" si="2"/>
+        <v>1191.842867837827</v>
+      </c>
+      <c r="G14" s="20">
+        <f t="shared" si="3"/>
+        <v>27.824788148279847</v>
+      </c>
+      <c r="H14" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="21">
+        <f t="shared" si="0"/>
+        <v>22072.704134378891</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
+        <v>1988</v>
+      </c>
+      <c r="B15" s="9">
+        <v>10</v>
+      </c>
+      <c r="C15" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>1986</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="D15" s="10">
+        <v>1120</v>
+      </c>
+      <c r="E15" s="20">
+        <f t="shared" si="1"/>
+        <v>1219.6676559861069</v>
+      </c>
+      <c r="F15" s="20">
+        <f t="shared" si="2"/>
+        <v>1163.0399161106088</v>
+      </c>
+      <c r="G15" s="20">
+        <f t="shared" si="3"/>
+        <v>3.2908695838528121</v>
+      </c>
+      <c r="H15" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="21">
+        <f t="shared" si="0"/>
+        <v>9933.6416497649443</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
+        <v>1988</v>
+      </c>
+      <c r="B16" s="9">
+        <v>11</v>
+      </c>
+      <c r="C16" s="9">
+        <v>3</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1077</v>
+      </c>
+      <c r="E16" s="20">
+        <f t="shared" si="1"/>
+        <v>1166.3307856944616</v>
+      </c>
+      <c r="F16" s="20">
+        <f t="shared" si="2"/>
+        <v>1115.5761005849313</v>
+      </c>
+      <c r="G16" s="20">
+        <f t="shared" si="3"/>
+        <v>-18.698553161573386</v>
+      </c>
+      <c r="H16" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="21">
+        <f t="shared" si="0"/>
+        <v>7979.9892727898268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
+        <v>1988</v>
+      </c>
+      <c r="B17" s="12">
+        <v>12</v>
+      </c>
+      <c r="C17" s="12">
+        <v>4</v>
+      </c>
+      <c r="D17" s="13">
+        <v>1089</v>
+      </c>
+      <c r="E17" s="20">
+        <f t="shared" si="1"/>
+        <v>1096.877547423358</v>
+      </c>
+      <c r="F17" s="20">
+        <f t="shared" si="2"/>
+        <v>1092.4017954661836</v>
+      </c>
+      <c r="G17" s="20">
+        <f t="shared" si="3"/>
+        <v>-20.637668765927607</v>
+      </c>
+      <c r="H17" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="21">
+        <f t="shared" si="0"/>
+        <v>62.055753407254421</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>1989</v>
+      </c>
+      <c r="B18" s="6">
+        <v>13</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1275</v>
+      </c>
+      <c r="E18" s="20">
+        <f t="shared" si="1"/>
+        <v>1071.7641267002559</v>
+      </c>
+      <c r="F18" s="20">
+        <f t="shared" si="2"/>
+        <v>1187.2357714652526</v>
+      </c>
+      <c r="G18" s="20">
+        <f t="shared" si="3"/>
+        <v>29.390319908765331</v>
+      </c>
+      <c r="H18" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="21">
+        <f t="shared" si="0"/>
+        <v>41304.820195909626</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
+        <v>1989</v>
+      </c>
+      <c r="B19" s="9">
+        <v>14</v>
+      </c>
+      <c r="C19" s="9">
         <v>2</v>
       </c>
-      <c r="D3" s="3">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="D19" s="10">
+        <v>1130</v>
+      </c>
+      <c r="E19" s="20">
+        <f t="shared" si="1"/>
+        <v>1216.626091374018</v>
+      </c>
+      <c r="F19" s="20">
+        <f t="shared" si="2"/>
+        <v>1167.4081207071567</v>
+      </c>
+      <c r="G19" s="20">
+        <f t="shared" si="3"/>
+        <v>8.0666773459160037</v>
+      </c>
+      <c r="H19" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="21">
+        <f t="shared" si="0"/>
+        <v>7504.0797067397089</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
+        <v>1989</v>
+      </c>
+      <c r="B20" s="9">
+        <v>15</v>
+      </c>
+      <c r="C20" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
-        <v>1986</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="D20" s="10">
+        <v>1098</v>
+      </c>
+      <c r="E20" s="20">
+        <f t="shared" si="1"/>
+        <v>1175.4747980530728</v>
+      </c>
+      <c r="F20" s="20">
+        <f t="shared" si="2"/>
+        <v>1131.4562780261977</v>
+      </c>
+      <c r="G20" s="20">
+        <f t="shared" si="3"/>
+        <v>-11.004307793881711</v>
+      </c>
+      <c r="H20" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="21">
+        <f t="shared" si="0"/>
+        <v>6002.34433336442</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
+        <v>1989</v>
+      </c>
+      <c r="B21" s="12">
+        <v>16</v>
+      </c>
+      <c r="C21" s="12">
+        <v>4</v>
+      </c>
+      <c r="D21" s="13">
+        <v>1089</v>
+      </c>
+      <c r="E21" s="20">
+        <f t="shared" si="1"/>
+        <v>1120.4519702323159</v>
+      </c>
+      <c r="F21" s="20">
+        <f t="shared" si="2"/>
+        <v>1102.5820407023612</v>
+      </c>
+      <c r="G21" s="20">
+        <f t="shared" si="3"/>
+        <v>-18.746439067421338</v>
+      </c>
+      <c r="H21" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="21">
+        <f t="shared" si="0"/>
+        <v>989.22643149448822</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>1990</v>
+      </c>
+      <c r="B22" s="6">
+        <v>17</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1219</v>
+      </c>
+      <c r="E22" s="20">
+        <f t="shared" si="1"/>
+        <v>1083.8356016349398</v>
+      </c>
+      <c r="F22" s="20">
+        <f t="shared" si="2"/>
+        <v>1160.6313716900897</v>
+      </c>
+      <c r="G22" s="20">
+        <f t="shared" si="3"/>
+        <v>14.525260858584952</v>
+      </c>
+      <c r="H22" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="21">
+        <f t="shared" si="0"/>
+        <v>18269.414585388677</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
+        <v>1990</v>
+      </c>
+      <c r="B23" s="9">
+        <v>18</v>
+      </c>
+      <c r="C23" s="9">
+        <v>2</v>
+      </c>
+      <c r="D23" s="10">
+        <v>1063</v>
+      </c>
+      <c r="E23" s="20">
+        <f t="shared" si="1"/>
+        <v>1175.1566325486747</v>
+      </c>
+      <c r="F23" s="20">
+        <f t="shared" si="2"/>
+        <v>1111.4330850202418</v>
+      </c>
+      <c r="G23" s="20">
+        <f t="shared" si="3"/>
+        <v>-13.082910139167</v>
+      </c>
+      <c r="H23" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="21">
+        <f t="shared" si="0"/>
+        <v>12579.110224658432</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
+        <v>1990</v>
+      </c>
+      <c r="B24" s="9">
+        <v>19</v>
+      </c>
+      <c r="C24" s="9">
         <v>3</v>
       </c>
-      <c r="D4" s="3">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="D24" s="10">
+        <v>1078</v>
+      </c>
+      <c r="E24" s="20">
+        <f t="shared" si="1"/>
+        <v>1098.3501748810747</v>
+      </c>
+      <c r="F24" s="20">
+        <f t="shared" si="2"/>
+        <v>1086.7879042709681</v>
+      </c>
+      <c r="G24" s="20">
+        <f t="shared" si="3"/>
+        <v>-18.092253725753729</v>
+      </c>
+      <c r="H24" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="21">
+        <f t="shared" si="0"/>
+        <v>414.12961769032512</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="11">
+        <v>1990</v>
+      </c>
+      <c r="B25" s="12">
+        <v>20</v>
+      </c>
+      <c r="C25" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
-        <v>1986</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="D25" s="13">
+        <v>1102</v>
+      </c>
+      <c r="E25" s="20">
+        <f t="shared" si="1"/>
+        <v>1068.6956505452142</v>
+      </c>
+      <c r="F25" s="20">
+        <f t="shared" si="2"/>
+        <v>1087.618038344835</v>
+      </c>
+      <c r="G25" s="20">
+        <f t="shared" si="3"/>
+        <v>-9.8941458312645381</v>
+      </c>
+      <c r="H25" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="21">
+        <f t="shared" si="0"/>
+        <v>1109.1796926064899</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" s="15">
+        <v>0.56816566332604235</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>1991</v>
+      </c>
+      <c r="B26" s="6">
+        <v>21</v>
+      </c>
+      <c r="C26" s="6">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1256</v>
+      </c>
+      <c r="E26" s="20">
+        <f t="shared" si="1"/>
+        <v>1077.7238925135705</v>
+      </c>
+      <c r="F26" s="20">
+        <f t="shared" si="2"/>
+        <v>1179.0142553787825</v>
+      </c>
+      <c r="G26" s="20">
+        <f t="shared" si="3"/>
+        <v>33.989814915888985</v>
+      </c>
+      <c r="H26" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="21">
+        <f t="shared" si="0"/>
+        <v>31782.370500512967</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="15">
+        <v>0.43324912169137225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="8">
+        <v>1991</v>
+      </c>
+      <c r="B27" s="9">
+        <v>22</v>
+      </c>
+      <c r="C27" s="9">
+        <v>2</v>
+      </c>
+      <c r="D27" s="10">
+        <v>1139</v>
+      </c>
+      <c r="E27" s="20">
+        <f t="shared" si="1"/>
+        <v>1213.0040702946715</v>
+      </c>
+      <c r="F27" s="20">
+        <f t="shared" si="2"/>
+        <v>1170.9574986068724</v>
+      </c>
+      <c r="G27" s="20">
+        <f t="shared" si="3"/>
+        <v>15.773174662016686</v>
+      </c>
+      <c r="H27" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="21">
+        <f t="shared" si="0"/>
+        <v>5476.6024201786759</v>
+      </c>
+      <c r="K27" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="3">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1987</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="L27" s="15">
         <v>1</v>
       </c>
-      <c r="D6" s="3">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1987</v>
-      </c>
-      <c r="C7" s="3">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="8">
+        <v>1991</v>
+      </c>
+      <c r="B28" s="9">
+        <v>23</v>
+      </c>
+      <c r="C28" s="9">
+        <v>3</v>
+      </c>
+      <c r="D28" s="10">
+        <v>1095</v>
+      </c>
+      <c r="E28" s="20">
+        <f t="shared" si="1"/>
+        <v>1186.7306732688889</v>
+      </c>
+      <c r="F28" s="20">
+        <f t="shared" si="2"/>
+        <v>1134.6124544437262</v>
+      </c>
+      <c r="G28" s="20">
+        <f t="shared" si="3"/>
+        <v>-6.806997868103883</v>
+      </c>
+      <c r="H28" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="21">
+        <f t="shared" si="0"/>
+        <v>8414.5164183636571</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="11">
+        <v>1991</v>
+      </c>
+      <c r="B29" s="12">
+        <v>24</v>
+      </c>
+      <c r="C29" s="12">
+        <v>4</v>
+      </c>
+      <c r="D29" s="13">
+        <v>1051</v>
+      </c>
+      <c r="E29" s="20">
+        <f t="shared" si="1"/>
+        <v>1127.8054565756222</v>
+      </c>
+      <c r="F29" s="20">
+        <f t="shared" si="2"/>
+        <v>1084.1672333932743</v>
+      </c>
+      <c r="G29" s="20">
+        <f t="shared" si="3"/>
+        <v>-25.713219734028236</v>
+      </c>
+      <c r="H29" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="21">
+        <f t="shared" si="0"/>
+        <v>5899.0781597897876</v>
+      </c>
+      <c r="J29" s="22">
+        <f>SUM(I8:I29)</f>
+        <v>296664.11455507274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>1992</v>
+      </c>
+      <c r="B30" s="6">
+        <v>25</v>
+      </c>
+      <c r="C30" s="6">
+        <v>1</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1264</v>
+      </c>
+      <c r="E30" s="20">
+        <f t="shared" si="1"/>
+        <v>1058.4540136592461</v>
+      </c>
+      <c r="F30" s="20">
+        <f t="shared" si="2"/>
+        <v>1175.2381853325462</v>
+      </c>
+      <c r="G30" s="20">
+        <f t="shared" si="3"/>
+        <v>24.883420070883503</v>
+      </c>
+      <c r="H30" s="20">
+        <f>L49*(D30-F30)+(1-$L$27)*H26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="8">
+        <v>1992</v>
+      </c>
+      <c r="B31" s="9">
+        <v>26</v>
+      </c>
+      <c r="C31" s="9">
         <v>2</v>
       </c>
-      <c r="D7" s="3">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1987</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="D31" s="10">
+        <v>1148</v>
+      </c>
+      <c r="E31" s="20">
+        <f t="shared" si="1"/>
+        <v>1200.1216054034296</v>
+      </c>
+      <c r="F31" s="20">
+        <f t="shared" si="2"/>
+        <v>1170.5078988957716</v>
+      </c>
+      <c r="G31" s="20">
+        <f t="shared" si="3"/>
+        <v>12.053307736414563</v>
+      </c>
+      <c r="H31" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="8">
+        <v>1992</v>
+      </c>
+      <c r="B32" s="9">
+        <v>27</v>
+      </c>
+      <c r="C32" s="9">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1987</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="D32" s="10">
+        <v>1093</v>
+      </c>
+      <c r="E32" s="20">
+        <f t="shared" si="1"/>
+        <v>1182.5612066321862</v>
+      </c>
+      <c r="F32" s="20">
+        <f t="shared" si="2"/>
+        <v>1131.6756042577294</v>
+      </c>
+      <c r="G32" s="20">
+        <f t="shared" si="3"/>
+        <v>-9.9928347990552293</v>
+      </c>
+      <c r="H32" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="11">
+        <v>1992</v>
+      </c>
+      <c r="B33" s="12">
+        <v>28</v>
+      </c>
+      <c r="C33" s="12">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1988</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1988</v>
-      </c>
-      <c r="C11" s="3">
-        <v>2</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1988</v>
-      </c>
-      <c r="C12" s="3">
-        <v>3</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="D33" s="13">
         <v>1077</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1988</v>
-      </c>
-      <c r="C13" s="3">
-        <v>4</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1989</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1989</v>
-      </c>
-      <c r="C15" s="3">
-        <v>2</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1989</v>
-      </c>
-      <c r="C16" s="3">
-        <v>3</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3">
-        <v>1989</v>
-      </c>
-      <c r="C17" s="3">
-        <v>4</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3">
-        <v>1990</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3">
-        <v>1219</v>
-      </c>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3">
-        <v>1990</v>
-      </c>
-      <c r="C19" s="3">
-        <v>2</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3">
-        <v>1990</v>
-      </c>
-      <c r="C20" s="3">
-        <v>3</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3">
-        <v>1990</v>
-      </c>
-      <c r="C21" s="3">
-        <v>4</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3">
-        <v>1991</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1991</v>
-      </c>
-      <c r="C23" s="3">
-        <v>2</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3">
-        <v>1991</v>
-      </c>
-      <c r="C24" s="3">
-        <v>3</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3">
-        <v>1991</v>
-      </c>
-      <c r="C25" s="3">
-        <v>4</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3">
-        <v>1992</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3">
-        <v>1992</v>
-      </c>
-      <c r="C27" s="3">
-        <v>2</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3">
-        <v>1992</v>
-      </c>
-      <c r="C28" s="3">
-        <v>3</v>
-      </c>
-      <c r="D28" s="3">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3">
-        <v>1992</v>
-      </c>
-      <c r="C29" s="3">
-        <v>4</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1077</v>
+      <c r="E33" s="20">
+        <f t="shared" si="1"/>
+        <v>1121.6827694586743</v>
+      </c>
+      <c r="F33" s="20">
+        <f t="shared" si="2"/>
+        <v>1096.295554109942</v>
+      </c>
+      <c r="G33" s="20">
+        <f t="shared" si="3"/>
+        <v>-20.991823551083172</v>
+      </c>
+      <c r="H33" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/laredo/series_temporais/sclomps.xlsx
+++ b/laredo/series_temporais/sclomps.xlsx
@@ -13,11 +13,18 @@
   </bookViews>
   <sheets>
     <sheet name="sclomps" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="__123Graph_A" hidden="1">Data!$D$3:$D$22</definedName>
+    <definedName name="__123Graph_B" hidden="1">Data!#REF!</definedName>
+    <definedName name="__123Graph_C" hidden="1">Data!#REF!</definedName>
+    <definedName name="__123Graph_X" hidden="1">Data!$C$3:$C$22</definedName>
     <definedName name="_ATPRand1_Dlg_Results" localSheetId="0" hidden="1">{2;#N/A;"R1C5:R28C5";#N/A;1;#N/A;28;#N/A;1;#N/A;#N/A;-50;#N/A;50;#N/A;#N/A;#N/A;#N/A;#N/A}</definedName>
     <definedName name="_ATPRand1_Dlg_Types" localSheetId="0" hidden="1">{"EXCELHLP.HLP!1794";5;10;5;7;5;7;5;121;14;5;8;5;8;5;8;1;2;24}</definedName>
     <definedName name="_ATPRand1_Range1" localSheetId="0" hidden="1">sclomps!#REF!</definedName>
+    <definedName name="_Fill" hidden="1">Data!#REF!</definedName>
+    <definedName name="_Regression_Int" localSheetId="1" hidden="1">1</definedName>
     <definedName name="Accelerate">#REF!</definedName>
     <definedName name="Age">#REF!</definedName>
     <definedName name="Age_Hired">#REF!</definedName>
@@ -30,41 +37,85 @@
     <definedName name="MPG">#REF!</definedName>
     <definedName name="MS_Hired">#REF!</definedName>
     <definedName name="Origin">#REF!</definedName>
+    <definedName name="Print_Area_MI" localSheetId="1">Data!$A$1:$D$23</definedName>
     <definedName name="Rank_Hired">#REF!</definedName>
     <definedName name="Salary">#REF!</definedName>
     <definedName name="Sex">#REF!</definedName>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">sclomps!$L$25:$L$27</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">Data!$K$3:$K$5</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">sclomps!$L$21:$L$23</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_ibd" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">sclomps!$L$25:$L$27</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">sclomps!$L$25:$L$27</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Data!$K$3:$K$5</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">sclomps!$L$21:$L$23</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">Data!$K$3:$K$5</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">sclomps!$L$21:$L$23</definedName>
+    <definedName name="solver_lin" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_loc" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_lva" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">5000</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">5000</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">sclomps!$J$29</definedName>
+    <definedName name="solver_ofx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Data!$N$4</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">sclomps!$J$25</definedName>
+    <definedName name="solver_piv" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pro" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_red" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_reo" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rep" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_std" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tmp" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="SPSS">#REF!</definedName>
     <definedName name="Weight">#REF!</definedName>
@@ -80,8 +131,155 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>BIT</author>
+    <author>A satisfied Microsoft Office user</author>
+  </authors>
+  <commentList>
+    <comment ref="G3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Initial value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Variable cell</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Initial value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K4" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Variable cell</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N4" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Set cell</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Initial value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K5" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Variable cell</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Initial value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Initial value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Initial value</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>DATA</t>
   </si>
@@ -118,15 +316,71 @@
   <si>
     <t>erro^2</t>
   </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>Forecast</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Trend</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Qtr</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Seasonal</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+  <numFmts count="6">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="General_)"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.0_);\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="167" formatCode="0.0_)"/>
+    <numFmt numFmtId="168" formatCode="0.000_)"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,15 +400,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <i/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="55"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="17"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,8 +470,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -331,12 +634,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -382,15 +725,84 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="4" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_TEMPO_4" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -466,7 +878,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>sclomps!$D$6:$D$33</c:f>
+              <c:f>sclomps!$D$2:$D$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -569,7 +981,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>sclomps!$E$7</c:f>
+              <c:f>sclomps!$E$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -605,86 +1017,80 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>sclomps!$B$8:$B$33</c:f>
+              <c:f>sclomps!$B$6:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>23</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="25">
                   <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
@@ -692,87 +1098,81 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>sclomps!$E$8:$E$33</c:f>
+              <c:f>sclomps!$E$6:$E$29</c:f>
               <c:numCache>
-                <c:formatCode>#.##00</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>1006</c:v>
+                  <c:v>1274</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>990.13878381345319</c:v>
+                  <c:v>1147.4220064953024</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>995.21887958104048</c:v>
+                  <c:v>1108.108793000383</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1158.9955461452569</c:v>
+                  <c:v>1171.0674643021512</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1154.6101041246905</c:v>
+                  <c:v>1267.9697545805202</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1107.2014940548947</c:v>
+                  <c:v>1122.3990084510599</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1107.431146822832</c:v>
+                  <c:v>1088.6597915186865</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1219.6676559861069</c:v>
+                  <c:v>1103.6815899064586</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1166.3307856944616</c:v>
+                  <c:v>1234.6688639661279</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1096.877547423358</c:v>
+                  <c:v>1130.3832049573659</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1071.7641267002559</c:v>
+                  <c:v>1095.7526948276623</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1216.626091374018</c:v>
+                  <c:v>1120.3173317509745</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1175.4747980530728</c:v>
+                  <c:v>1253.1397924232142</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1120.4519702323159</c:v>
+                  <c:v>1083.085631280137</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1083.8356016349398</c:v>
+                  <c:v>1034.5101113391925</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1175.1566325486747</c:v>
+                  <c:v>1081.0320789183695</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1098.3501748810747</c:v>
+                  <c:v>1251.9330596757918</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1068.6956505452142</c:v>
+                  <c:v>1113.8591140083627</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1077.7238925135705</c:v>
+                  <c:v>1115.2404723090724</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1213.0040702946715</c:v>
+                  <c:v>1108.6555759683947</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1186.7306732688889</c:v>
+                  <c:v>1216.8450842853836</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1127.8054565756222</c:v>
+                  <c:v>1116.1839114445568</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1058.4540136592461</c:v>
+                  <c:v>1110.8203247305112</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1200.1216054034296</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1182.5612066321862</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1121.6827694586743</c:v>
+                  <c:v>1096.386074073469</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -959,6 +1359,699 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20491857955136705"/>
+          <c:y val="6.8965517241379309E-2"/>
+          <c:w val="0.75410037274903075"/>
+          <c:h val="0.79840848806366049"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Actual Sales</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="000080"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$C$3:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General_)</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$D$3:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.0_);\("$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>684.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>584.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>765.38048421453368</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>892.27583151883448</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>885.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>677.0224130538038</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1006.6253874787303</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1122.0567961326187</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1163.3914151299891</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>993.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1312.4649225935223</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1545.3069567055034</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1596.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1260.414217243964</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1735.1553109244817</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2029.6569911476754</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2107.7893735648445</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1650.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2304.3966746291926</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2639.4169722338938</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5CDA-49EB-85E3-C98D87B6D92F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Additive Seasonal Model</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="FF00FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-5CDA-49EB-85E3-C98D87B6D92F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-5CDA-49EB-85E3-C98D87B6D92F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-5CDA-49EB-85E3-C98D87B6D92F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-5CDA-49EB-85E3-C98D87B6D92F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-5CDA-49EB-85E3-C98D87B6D92F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$C$3:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General_)</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$H$3:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.0_);\("$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>684.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>923.09729400488652</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1148.4443146780213</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1027.5654708820471</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1014.631279327016</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1299.2619572088447</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1487.2700387726352</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1495.5654159737503</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1463.3320354183286</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1658.1171673467638</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1897.4492829847397</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1980.2201262223684</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1919.0402970020975</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2167.9218804749453</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2482.6425757118805</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-5CDA-49EB-85E3-C98D87B6D92F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="519384528"/>
+        <c:axId val="519387888"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="519384528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="21"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time Period</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46721436137711692"/>
+              <c:y val="0.92838196286472152"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General_)" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="519387888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="519387888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sales (in $1,000s) .</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3661238636757804E-2"/>
+              <c:y val="0.30769230769230771"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="\$#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="519384528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42896289319419506"/>
+          <c:y val="0.71352785145888598"/>
+          <c:w val="0.50000133410533565"/>
+          <c:h val="0.11671087533156499"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="35921" dir="2700000" algn="br">
+            <a:srgbClr val="000000"/>
+          </a:outerShdw>
+        </a:effectLst>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="825" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="3175">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial"/>
+          <a:ea typeface="Arial"/>
+          <a:cs typeface="Arial"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1526,18 +2619,55 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 5"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1823,10 +2953,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1861,405 +2991,476 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="H2" s="17">
+      <c r="A2" s="1">
+        <v>1986</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1274</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="50">
+        <f>D2-AVERAGE($D$2:$D$5)</f>
+        <v>109.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <v>1986</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1140</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="51">
+        <f t="shared" ref="H3:H5" si="0">D3-AVERAGE($D$2:$D$5)</f>
+        <v>-24.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
+        <v>1986</v>
+      </c>
+      <c r="B4" s="9">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9">
+        <v>3</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1101</v>
+      </c>
+      <c r="H4" s="51">
+        <f t="shared" si="0"/>
+        <v>-63.75</v>
+      </c>
+      <c r="I4" s="20"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
+        <v>1986</v>
+      </c>
+      <c r="B5" s="12">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12">
+        <v>4</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1144</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="H3" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="H4" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="H5" s="17">
-        <v>2</v>
+      <c r="F5" s="47">
+        <f>D5-H5</f>
+        <v>1164.75</v>
+      </c>
+      <c r="G5" s="47">
+        <v>0</v>
+      </c>
+      <c r="H5" s="52">
+        <f t="shared" si="0"/>
+        <v>-20.75</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B6" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
       </c>
       <c r="D6" s="7">
+        <v>1284</v>
+      </c>
+      <c r="E6" s="44">
+        <f>F5+G5+H2</f>
         <v>1274</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19">
-        <v>10</v>
+      <c r="F6" s="45">
+        <f t="shared" ref="F6:F29" si="1">$L$21*(D6-H2)+(1-$L$21)*(F5+G5)</f>
+        <v>1172.1720064953024</v>
+      </c>
+      <c r="G6" s="45">
+        <f>$L$22*(F6-F5)+(1-$L$22)*G5</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="48">
+        <f>$L$23*(D6-F6)+(1-$L$23)*H2</f>
+        <v>111.82799350469759</v>
+      </c>
+      <c r="I6" s="46">
+        <f t="shared" ref="I6:I25" si="2">(E6-D6)^2</f>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B7" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7" s="9">
         <v>2</v>
       </c>
       <c r="D7" s="10">
-        <v>1140</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="20">
-        <f>D7</f>
-        <v>1140</v>
-      </c>
-      <c r="G7" s="20">
-        <f>D7-D6</f>
-        <v>-134</v>
-      </c>
-      <c r="H7" s="20">
-        <f>$L$27*(D7-F7)+(1-$L$27)*H3</f>
+        <v>1147</v>
+      </c>
+      <c r="E7" s="19">
+        <f t="shared" ref="E7:E29" si="3">F6+G6+H3</f>
+        <v>1147.4220064953024</v>
+      </c>
+      <c r="F7" s="19">
+        <f t="shared" si="1"/>
+        <v>1171.858793000383</v>
+      </c>
+      <c r="G7" s="19">
+        <f t="shared" ref="G7:G29" si="4">$L$22*(F7-F6)+(1-$L$22)*G6</f>
         <v>0</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>11</v>
+      <c r="H7" s="49">
+        <f t="shared" ref="H7:H29" si="5">$L$23*(D7-F7)+(1-$L$23)*H3</f>
+        <v>-24.858793000383002</v>
+      </c>
+      <c r="I7" s="20">
+        <f t="shared" si="2"/>
+        <v>0.17808948207742475</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B8" s="9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C8" s="9">
         <v>3</v>
       </c>
       <c r="D8" s="10">
-        <v>1101</v>
-      </c>
-      <c r="E8" s="20">
-        <f>F7+G7+H7</f>
-        <v>1006</v>
-      </c>
-      <c r="F8" s="20">
-        <f>$L$25*(D8-H4)+(1-$L$25)*(F7+G7)</f>
-        <v>1059.407572352648</v>
-      </c>
-      <c r="G8" s="20">
-        <f>$L$26*(F8-F7)+(1-$L$26)*G7</f>
-        <v>-110.86121618654683</v>
-      </c>
-      <c r="H8" s="20">
-        <f>L27*(D8-F8)+(1-$L$27)*H4</f>
-        <v>41.592427647351997</v>
-      </c>
-      <c r="I8" s="21">
-        <f>(E8-D8)^2</f>
-        <v>9025</v>
+        <v>1135</v>
+      </c>
+      <c r="E8" s="19">
+        <f t="shared" si="3"/>
+        <v>1108.108793000383</v>
+      </c>
+      <c r="F8" s="19">
+        <f t="shared" si="1"/>
+        <v>1191.8174643021512</v>
+      </c>
+      <c r="G8" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="49">
+        <f t="shared" si="5"/>
+        <v>-56.817464302151166</v>
+      </c>
+      <c r="I8" s="20">
+        <f t="shared" si="2"/>
+        <v>723.13701389625021</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B9" s="12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C9" s="12">
         <v>4</v>
       </c>
       <c r="D9" s="13">
-        <v>1144</v>
-      </c>
-      <c r="E9" s="20">
-        <f>F8+G8+H8</f>
-        <v>990.13878381345319</v>
-      </c>
-      <c r="F9" s="20">
-        <f>$L$25*(D9-H5)+(1-$L$25)*(F8+G8)</f>
-        <v>1058.4600740378282</v>
-      </c>
-      <c r="G9" s="20">
-        <f>$L$26*(F9-F8)+(1-$L$26)*G8</f>
-        <v>-63.241194456787788</v>
-      </c>
-      <c r="H9" s="20">
-        <f>L28*(D9-F9)+(1-$L$27)*H5</f>
+        <v>1123</v>
+      </c>
+      <c r="E9" s="19">
+        <f t="shared" si="3"/>
+        <v>1171.0674643021512</v>
+      </c>
+      <c r="F9" s="19">
+        <f t="shared" si="1"/>
+        <v>1156.1417610758226</v>
+      </c>
+      <c r="G9" s="19">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I9" s="21">
-        <f t="shared" ref="I9:I29" si="0">(E9-D9)^2</f>
-        <v>23673.273846403295</v>
+      <c r="H9" s="49">
+        <f t="shared" si="5"/>
+        <v>-33.141761075822615</v>
+      </c>
+      <c r="I9" s="20">
+        <f t="shared" si="2"/>
+        <v>2310.4811244385764</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B10" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1284</v>
-      </c>
-      <c r="E10" s="20">
-        <f t="shared" ref="E10:E33" si="1">F9+G9+H9</f>
-        <v>995.21887958104048</v>
-      </c>
-      <c r="F10" s="20">
-        <f t="shared" ref="F10:F33" si="2">$L$25*(D10-H6)+(1-$L$25)*(F9+G9)</f>
-        <v>1153.6127397866558</v>
-      </c>
-      <c r="G10" s="20">
-        <f t="shared" ref="G10:G33" si="3">$L$26*(F10-F9)+(1-$L$26)*G9</f>
-        <v>5.3828063586010515</v>
-      </c>
-      <c r="H10" s="20">
-        <f t="shared" ref="H10:H33" si="4">L29*(D10-F10)+(1-$L$27)*H6</f>
+        <v>1256</v>
+      </c>
+      <c r="E10" s="19">
+        <f t="shared" si="3"/>
+        <v>1267.9697545805202</v>
+      </c>
+      <c r="F10" s="19">
+        <f t="shared" si="1"/>
+        <v>1147.2578014514429</v>
+      </c>
+      <c r="G10" s="19">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I10" s="21">
-        <f t="shared" si="0"/>
-        <v>83394.535510429603</v>
+      <c r="H10" s="49">
+        <f t="shared" si="5"/>
+        <v>108.7421985485571</v>
+      </c>
+      <c r="I10" s="20">
+        <f t="shared" si="2"/>
+        <v>143.27502471788438</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B11" s="9">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C11" s="9">
         <v>2</v>
       </c>
       <c r="D11" s="10">
-        <v>1147</v>
-      </c>
-      <c r="E11" s="20">
+        <v>1120</v>
+      </c>
+      <c r="E11" s="19">
+        <f t="shared" si="3"/>
+        <v>1122.3990084510599</v>
+      </c>
+      <c r="F11" s="19">
         <f t="shared" si="1"/>
-        <v>1158.9955461452569</v>
-      </c>
-      <c r="F11" s="20">
-        <f t="shared" si="2"/>
-        <v>1152.1800887126788</v>
-      </c>
-      <c r="G11" s="20">
-        <f t="shared" si="3"/>
-        <v>2.4300154120116702</v>
-      </c>
-      <c r="H11" s="20">
+        <v>1145.4772558208376</v>
+      </c>
+      <c r="G11" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I11" s="21">
-        <f t="shared" si="0"/>
-        <v>143.89312732298689</v>
+      <c r="H11" s="49">
+        <f t="shared" si="5"/>
+        <v>-25.477255820837627</v>
+      </c>
+      <c r="I11" s="20">
+        <f t="shared" si="2"/>
+        <v>5.7552415482568158</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B12" s="9">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C12" s="9">
         <v>3</v>
       </c>
       <c r="D12" s="10">
-        <v>1135</v>
-      </c>
-      <c r="E12" s="20">
+        <v>1077</v>
+      </c>
+      <c r="E12" s="19">
+        <f t="shared" si="3"/>
+        <v>1088.6597915186865</v>
+      </c>
+      <c r="F12" s="19">
         <f t="shared" si="1"/>
-        <v>1154.6101041246905</v>
-      </c>
-      <c r="F12" s="20">
-        <f t="shared" si="2"/>
-        <v>1119.8369270631947</v>
-      </c>
-      <c r="G12" s="20">
-        <f t="shared" si="3"/>
-        <v>-12.635433008299922</v>
-      </c>
-      <c r="H12" s="20">
+        <v>1136.8233509822812</v>
+      </c>
+      <c r="G12" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I12" s="21">
-        <f t="shared" si="0"/>
-        <v>384.55618378120147</v>
+      <c r="H12" s="49">
+        <f t="shared" si="5"/>
+        <v>-59.823350982281227</v>
+      </c>
+      <c r="I12" s="20">
+        <f t="shared" si="2"/>
+        <v>135.95073825923274</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B13" s="12">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C13" s="12">
         <v>4</v>
       </c>
       <c r="D13" s="13">
-        <v>1123</v>
-      </c>
-      <c r="E13" s="20">
+        <v>1089</v>
+      </c>
+      <c r="E13" s="19">
+        <f t="shared" si="3"/>
+        <v>1103.6815899064586</v>
+      </c>
+      <c r="F13" s="19">
         <f t="shared" si="1"/>
-        <v>1107.2014940548947</v>
-      </c>
-      <c r="F13" s="20">
-        <f t="shared" si="2"/>
-        <v>1116.1776626647559</v>
-      </c>
-      <c r="G13" s="20">
-        <f t="shared" si="3"/>
-        <v>-8.746515841923939</v>
-      </c>
-      <c r="H13" s="20">
+        <v>1125.9266654175708</v>
+      </c>
+      <c r="G13" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I13" s="21">
-        <f t="shared" si="0"/>
-        <v>249.59279009752632</v>
+      <c r="H13" s="49">
+        <f t="shared" si="5"/>
+        <v>-36.926665417570803</v>
+      </c>
+      <c r="I13" s="20">
+        <f t="shared" si="2"/>
+        <v>215.54908218142739</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B14" s="6">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C14" s="6">
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>1256</v>
-      </c>
-      <c r="E14" s="20">
+        <v>1275</v>
+      </c>
+      <c r="E14" s="19">
+        <f t="shared" si="3"/>
+        <v>1234.6688639661279</v>
+      </c>
+      <c r="F14" s="19">
         <f t="shared" si="1"/>
-        <v>1107.431146822832</v>
-      </c>
-      <c r="F14" s="20">
-        <f t="shared" si="2"/>
-        <v>1191.842867837827</v>
-      </c>
-      <c r="G14" s="20">
-        <f t="shared" si="3"/>
-        <v>27.824788148279847</v>
-      </c>
-      <c r="H14" s="20">
+        <v>1155.8604607782036</v>
+      </c>
+      <c r="G14" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I14" s="21">
-        <f t="shared" si="0"/>
-        <v>22072.704134378891</v>
+      <c r="H14" s="49">
+        <f t="shared" si="5"/>
+        <v>119.13953922179644</v>
+      </c>
+      <c r="I14" s="20">
+        <f t="shared" si="2"/>
+        <v>1626.6005337826964</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B15" s="9">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C15" s="9">
         <v>2</v>
       </c>
       <c r="D15" s="10">
-        <v>1120</v>
-      </c>
-      <c r="E15" s="20">
+        <v>1130</v>
+      </c>
+      <c r="E15" s="19">
+        <f t="shared" si="3"/>
+        <v>1130.3832049573659</v>
+      </c>
+      <c r="F15" s="19">
         <f t="shared" si="1"/>
-        <v>1219.6676559861069</v>
-      </c>
-      <c r="F15" s="20">
-        <f t="shared" si="2"/>
-        <v>1163.0399161106088</v>
-      </c>
-      <c r="G15" s="20">
-        <f t="shared" si="3"/>
-        <v>3.2908695838528121</v>
-      </c>
-      <c r="H15" s="20">
+        <v>1155.5760458099435</v>
+      </c>
+      <c r="G15" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I15" s="21">
-        <f t="shared" si="0"/>
-        <v>9933.6416497649443</v>
+      <c r="H15" s="49">
+        <f t="shared" si="5"/>
+        <v>-25.57604580994348</v>
+      </c>
+      <c r="I15" s="20">
+        <f t="shared" si="2"/>
+        <v>0.14684603934982676</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B16" s="9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C16" s="9">
         <v>3</v>
       </c>
       <c r="D16" s="10">
-        <v>1077</v>
-      </c>
-      <c r="E16" s="20">
+        <v>1098</v>
+      </c>
+      <c r="E16" s="19">
+        <f t="shared" si="3"/>
+        <v>1095.7526948276623</v>
+      </c>
+      <c r="F16" s="19">
         <f t="shared" si="1"/>
-        <v>1166.3307856944616</v>
-      </c>
-      <c r="F16" s="20">
-        <f t="shared" si="2"/>
-        <v>1115.5761005849313</v>
-      </c>
-      <c r="G16" s="20">
-        <f t="shared" si="3"/>
-        <v>-18.698553161573386</v>
-      </c>
-      <c r="H16" s="20">
+        <v>1157.2439971685453</v>
+      </c>
+      <c r="G16" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I16" s="21">
-        <f t="shared" si="0"/>
-        <v>7979.9892727898268</v>
+      <c r="H16" s="49">
+        <f t="shared" si="5"/>
+        <v>-59.24399716854532</v>
+      </c>
+      <c r="I16" s="20">
+        <f t="shared" si="2"/>
+        <v>5.0503805376159887</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B17" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C17" s="12">
         <v>4</v>
@@ -2267,575 +3468,441 @@
       <c r="D17" s="13">
         <v>1089</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="19">
+        <f t="shared" si="3"/>
+        <v>1120.3173317509745</v>
+      </c>
+      <c r="F17" s="19">
         <f t="shared" si="1"/>
-        <v>1096.877547423358</v>
-      </c>
-      <c r="F17" s="20">
-        <f t="shared" si="2"/>
-        <v>1092.4017954661836</v>
-      </c>
-      <c r="G17" s="20">
-        <f t="shared" si="3"/>
-        <v>-20.637668765927607</v>
-      </c>
-      <c r="H17" s="20">
+        <v>1134.0002532014178</v>
+      </c>
+      <c r="G17" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I17" s="21">
-        <f t="shared" si="0"/>
-        <v>62.055753407254421</v>
+      <c r="H17" s="49">
+        <f t="shared" si="5"/>
+        <v>-45.000253201417763</v>
+      </c>
+      <c r="I17" s="20">
+        <f t="shared" si="2"/>
+        <v>980.77526800059661</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B18" s="6">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C18" s="6">
         <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>1275</v>
-      </c>
-      <c r="E18" s="20">
+        <v>1219</v>
+      </c>
+      <c r="E18" s="19">
+        <f t="shared" si="3"/>
+        <v>1253.1397924232142</v>
+      </c>
+      <c r="F18" s="19">
         <f t="shared" si="1"/>
-        <v>1071.7641267002559</v>
-      </c>
-      <c r="F18" s="20">
-        <f t="shared" si="2"/>
-        <v>1187.2357714652526</v>
-      </c>
-      <c r="G18" s="20">
-        <f t="shared" si="3"/>
-        <v>29.390319908765331</v>
-      </c>
-      <c r="H18" s="20">
+        <v>1108.6616770900805</v>
+      </c>
+      <c r="G18" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I18" s="21">
-        <f t="shared" si="0"/>
-        <v>41304.820195909626</v>
+      <c r="H18" s="49">
+        <f t="shared" si="5"/>
+        <v>110.3383229099195</v>
+      </c>
+      <c r="I18" s="20">
+        <f t="shared" si="2"/>
+        <v>1165.525426700154</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B19" s="9">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C19" s="9">
         <v>2</v>
       </c>
       <c r="D19" s="10">
-        <v>1130</v>
-      </c>
-      <c r="E19" s="20">
+        <v>1063</v>
+      </c>
+      <c r="E19" s="19">
+        <f t="shared" si="3"/>
+        <v>1083.085631280137</v>
+      </c>
+      <c r="F19" s="19">
         <f t="shared" si="1"/>
-        <v>1216.626091374018</v>
-      </c>
-      <c r="F19" s="20">
-        <f t="shared" si="2"/>
-        <v>1167.4081207071567</v>
-      </c>
-      <c r="G19" s="20">
-        <f t="shared" si="3"/>
-        <v>8.0666773459160037</v>
-      </c>
-      <c r="H19" s="20">
+        <v>1093.7541085077378</v>
+      </c>
+      <c r="G19" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I19" s="21">
-        <f t="shared" si="0"/>
-        <v>7504.0797067397089</v>
+      <c r="H19" s="49">
+        <f t="shared" si="5"/>
+        <v>-30.754108507737783</v>
+      </c>
+      <c r="I19" s="20">
+        <f t="shared" si="2"/>
+        <v>403.4325839216188</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B20" s="9">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C20" s="9">
         <v>3</v>
       </c>
       <c r="D20" s="10">
-        <v>1098</v>
-      </c>
-      <c r="E20" s="20">
+        <v>1078</v>
+      </c>
+      <c r="E20" s="19">
+        <f t="shared" si="3"/>
+        <v>1034.5101113391925</v>
+      </c>
+      <c r="F20" s="19">
         <f t="shared" si="1"/>
-        <v>1175.4747980530728</v>
-      </c>
-      <c r="F20" s="20">
-        <f t="shared" si="2"/>
-        <v>1131.4562780261977</v>
-      </c>
-      <c r="G20" s="20">
-        <f t="shared" si="3"/>
-        <v>-11.004307793881711</v>
-      </c>
-      <c r="H20" s="20">
+        <v>1126.0323321197873</v>
+      </c>
+      <c r="G20" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I20" s="21">
-        <f t="shared" si="0"/>
-        <v>6002.34433336442</v>
+      <c r="H20" s="49">
+        <f t="shared" si="5"/>
+        <v>-48.03233211978727</v>
+      </c>
+      <c r="I20" s="20">
+        <f t="shared" si="2"/>
+        <v>1891.370415729436</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B21" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C21" s="12">
         <v>4</v>
       </c>
       <c r="D21" s="13">
-        <v>1089</v>
-      </c>
-      <c r="E21" s="20">
+        <v>1102</v>
+      </c>
+      <c r="E21" s="19">
+        <f t="shared" si="3"/>
+        <v>1081.0320789183695</v>
+      </c>
+      <c r="F21" s="19">
         <f t="shared" si="1"/>
-        <v>1120.4519702323159</v>
-      </c>
-      <c r="F21" s="20">
-        <f t="shared" si="2"/>
-        <v>1102.5820407023612</v>
-      </c>
-      <c r="G21" s="20">
-        <f t="shared" si="3"/>
-        <v>-18.746439067421338</v>
-      </c>
-      <c r="H21" s="20">
+        <v>1141.5947367658723</v>
+      </c>
+      <c r="G21" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I21" s="21">
-        <f t="shared" si="0"/>
-        <v>989.22643149448822</v>
+      <c r="H21" s="49">
+        <f t="shared" si="5"/>
+        <v>-39.594736765872312</v>
+      </c>
+      <c r="I21" s="20">
+        <f t="shared" si="2"/>
+        <v>439.65371448548444</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" s="15">
+        <v>0.742200649530248</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B22" s="6">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C22" s="6">
         <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>1219</v>
-      </c>
-      <c r="E22" s="20">
+        <v>1256</v>
+      </c>
+      <c r="E22" s="19">
+        <f t="shared" si="3"/>
+        <v>1251.9330596757918</v>
+      </c>
+      <c r="F22" s="19">
         <f t="shared" si="1"/>
-        <v>1083.8356016349398</v>
-      </c>
-      <c r="F22" s="20">
-        <f t="shared" si="2"/>
-        <v>1160.6313716900897</v>
-      </c>
-      <c r="G22" s="20">
-        <f t="shared" si="3"/>
-        <v>14.525260858584952</v>
-      </c>
-      <c r="H22" s="20">
+        <v>1144.6132225161004</v>
+      </c>
+      <c r="G22" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I22" s="21">
-        <f t="shared" si="0"/>
-        <v>18269.414585388677</v>
+      <c r="H22" s="49">
+        <f t="shared" si="5"/>
+        <v>111.38677748389955</v>
+      </c>
+      <c r="I22" s="20">
+        <f t="shared" si="2"/>
+        <v>16.540003600670616</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B23" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C23" s="9">
         <v>2</v>
       </c>
       <c r="D23" s="10">
-        <v>1063</v>
-      </c>
-      <c r="E23" s="20">
+        <v>1139</v>
+      </c>
+      <c r="E23" s="19">
+        <f t="shared" si="3"/>
+        <v>1113.8591140083627</v>
+      </c>
+      <c r="F23" s="19">
         <f t="shared" si="1"/>
-        <v>1175.1566325486747</v>
-      </c>
-      <c r="F23" s="20">
-        <f t="shared" si="2"/>
-        <v>1111.4330850202418</v>
-      </c>
-      <c r="G23" s="20">
-        <f t="shared" si="3"/>
-        <v>-13.082910139167</v>
-      </c>
-      <c r="H23" s="20">
+        <v>1163.2728044288597</v>
+      </c>
+      <c r="G23" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I23" s="21">
-        <f t="shared" si="0"/>
-        <v>12579.110224658432</v>
+      <c r="H23" s="49">
+        <f t="shared" si="5"/>
+        <v>-24.272804428859672</v>
+      </c>
+      <c r="I23" s="20">
+        <f t="shared" si="2"/>
+        <v>632.06414844450626</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B24" s="9">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C24" s="9">
         <v>3</v>
       </c>
       <c r="D24" s="10">
-        <v>1078</v>
-      </c>
-      <c r="E24" s="20">
+        <v>1095</v>
+      </c>
+      <c r="E24" s="19">
+        <f t="shared" si="3"/>
+        <v>1115.2404723090724</v>
+      </c>
+      <c r="F24" s="19">
         <f t="shared" si="1"/>
-        <v>1098.3501748810747</v>
-      </c>
-      <c r="F24" s="20">
-        <f t="shared" si="2"/>
-        <v>1086.7879042709681</v>
-      </c>
-      <c r="G24" s="20">
-        <f t="shared" si="3"/>
-        <v>-18.092253725753729</v>
-      </c>
-      <c r="H24" s="20">
+        <v>1148.250312734267</v>
+      </c>
+      <c r="G24" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I24" s="21">
-        <f t="shared" si="0"/>
-        <v>414.12961769032512</v>
+      <c r="H24" s="49">
+        <f t="shared" si="5"/>
+        <v>-53.250312734267027</v>
+      </c>
+      <c r="I24" s="20">
+        <f t="shared" si="2"/>
+        <v>409.67671929432669</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B25" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C25" s="12">
         <v>4</v>
       </c>
       <c r="D25" s="13">
-        <v>1102</v>
-      </c>
-      <c r="E25" s="20">
+        <v>1051</v>
+      </c>
+      <c r="E25" s="19">
+        <f t="shared" si="3"/>
+        <v>1108.6555759683947</v>
+      </c>
+      <c r="F25" s="19">
         <f t="shared" si="1"/>
-        <v>1068.6956505452142</v>
-      </c>
-      <c r="F25" s="20">
-        <f t="shared" si="2"/>
-        <v>1087.618038344835</v>
-      </c>
-      <c r="G25" s="20">
-        <f t="shared" si="3"/>
-        <v>-9.8941458312645381</v>
-      </c>
-      <c r="H25" s="20">
+        <v>1105.458306801484</v>
+      </c>
+      <c r="G25" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I25" s="21">
-        <f t="shared" si="0"/>
-        <v>1109.1796926064899</v>
-      </c>
-      <c r="K25" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="L25" s="15">
-        <v>0.56816566332604235</v>
+      <c r="H25" s="49">
+        <f t="shared" si="5"/>
+        <v>-54.458306801484014</v>
+      </c>
+      <c r="I25" s="20">
+        <f t="shared" si="2"/>
+        <v>3324.1654402473341</v>
+      </c>
+      <c r="J25" s="21">
+        <f>SUM(I6:I25)</f>
+        <v>14529.327795307496</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B26" s="6">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C26" s="6">
         <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>1256</v>
-      </c>
-      <c r="E26" s="20">
+        <v>1264</v>
+      </c>
+      <c r="E26" s="44">
+        <f t="shared" si="3"/>
+        <v>1216.8450842853836</v>
+      </c>
+      <c r="F26" s="45">
         <f t="shared" si="1"/>
-        <v>1077.7238925135705</v>
-      </c>
-      <c r="F26" s="20">
-        <f t="shared" si="2"/>
-        <v>1179.0142553787825</v>
-      </c>
-      <c r="G26" s="20">
-        <f t="shared" si="3"/>
-        <v>33.989814915888985</v>
-      </c>
-      <c r="H26" s="20">
+        <v>1140.4567158734164</v>
+      </c>
+      <c r="G26" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I26" s="21">
-        <f t="shared" si="0"/>
-        <v>31782.370500512967</v>
-      </c>
-      <c r="K26" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="15">
-        <v>0.43324912169137225</v>
-      </c>
+      <c r="H26" s="48">
+        <f t="shared" si="5"/>
+        <v>123.54328412658356</v>
+      </c>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B27" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C27" s="9">
         <v>2</v>
       </c>
       <c r="D27" s="10">
-        <v>1139</v>
-      </c>
-      <c r="E27" s="20">
+        <v>1148</v>
+      </c>
+      <c r="E27" s="19">
+        <f t="shared" si="3"/>
+        <v>1116.1839114445568</v>
+      </c>
+      <c r="F27" s="19">
         <f t="shared" si="1"/>
-        <v>1213.0040702946715</v>
-      </c>
-      <c r="F27" s="20">
-        <f t="shared" si="2"/>
-        <v>1170.9574986068724</v>
-      </c>
-      <c r="G27" s="20">
-        <f t="shared" si="3"/>
-        <v>15.773174662016686</v>
-      </c>
-      <c r="H27" s="20">
+        <v>1164.0706374647782</v>
+      </c>
+      <c r="G27" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I27" s="21">
-        <f t="shared" si="0"/>
-        <v>5476.6024201786759</v>
-      </c>
-      <c r="K27" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="L27" s="15">
-        <v>1</v>
+      <c r="H27" s="49">
+        <f t="shared" si="5"/>
+        <v>-16.070637464778201</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B28" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C28" s="9">
         <v>3</v>
       </c>
       <c r="D28" s="10">
-        <v>1095</v>
-      </c>
-      <c r="E28" s="20">
+        <v>1093</v>
+      </c>
+      <c r="E28" s="19">
+        <f t="shared" si="3"/>
+        <v>1110.8203247305112</v>
+      </c>
+      <c r="F28" s="19">
         <f t="shared" si="1"/>
-        <v>1186.7306732688889</v>
-      </c>
-      <c r="F28" s="20">
-        <f t="shared" si="2"/>
-        <v>1134.6124544437262</v>
-      </c>
-      <c r="G28" s="20">
-        <f t="shared" si="3"/>
-        <v>-6.806997868103883</v>
-      </c>
-      <c r="H28" s="20">
+        <v>1150.844380874953</v>
+      </c>
+      <c r="G28" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I28" s="21">
-        <f t="shared" si="0"/>
-        <v>8414.5164183636571</v>
+      <c r="H28" s="49">
+        <f t="shared" si="5"/>
+        <v>-57.844380874953004</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B29" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C29" s="12">
         <v>4</v>
       </c>
       <c r="D29" s="13">
-        <v>1051</v>
-      </c>
-      <c r="E29" s="20">
+        <v>1077</v>
+      </c>
+      <c r="E29" s="19">
+        <f t="shared" si="3"/>
+        <v>1096.386074073469</v>
+      </c>
+      <c r="F29" s="19">
         <f t="shared" si="1"/>
-        <v>1127.8054565756222</v>
-      </c>
-      <c r="F29" s="20">
-        <f t="shared" si="2"/>
-        <v>1084.1672333932743</v>
-      </c>
-      <c r="G29" s="20">
-        <f t="shared" si="3"/>
-        <v>-25.713219734028236</v>
-      </c>
-      <c r="H29" s="20">
+        <v>1136.4560241057827</v>
+      </c>
+      <c r="G29" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I29" s="21">
-        <f t="shared" si="0"/>
-        <v>5899.0781597897876</v>
-      </c>
-      <c r="J29" s="22">
-        <f>SUM(I8:I29)</f>
-        <v>296664.11455507274</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>1992</v>
-      </c>
-      <c r="B30" s="6">
-        <v>25</v>
-      </c>
-      <c r="C30" s="6">
-        <v>1</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1264</v>
-      </c>
-      <c r="E30" s="20">
-        <f t="shared" si="1"/>
-        <v>1058.4540136592461</v>
-      </c>
-      <c r="F30" s="20">
-        <f t="shared" si="2"/>
-        <v>1175.2381853325462</v>
-      </c>
-      <c r="G30" s="20">
-        <f t="shared" si="3"/>
-        <v>24.883420070883503</v>
-      </c>
-      <c r="H30" s="20">
-        <f>L49*(D30-F30)+(1-$L$27)*H26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="8">
-        <v>1992</v>
-      </c>
-      <c r="B31" s="9">
-        <v>26</v>
-      </c>
-      <c r="C31" s="9">
-        <v>2</v>
-      </c>
-      <c r="D31" s="10">
-        <v>1148</v>
-      </c>
-      <c r="E31" s="20">
-        <f t="shared" si="1"/>
-        <v>1200.1216054034296</v>
-      </c>
-      <c r="F31" s="20">
-        <f t="shared" si="2"/>
-        <v>1170.5078988957716</v>
-      </c>
-      <c r="G31" s="20">
-        <f t="shared" si="3"/>
-        <v>12.053307736414563</v>
-      </c>
-      <c r="H31" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="8">
-        <v>1992</v>
-      </c>
-      <c r="B32" s="9">
-        <v>27</v>
-      </c>
-      <c r="C32" s="9">
-        <v>3</v>
-      </c>
-      <c r="D32" s="10">
-        <v>1093</v>
-      </c>
-      <c r="E32" s="20">
-        <f t="shared" si="1"/>
-        <v>1182.5612066321862</v>
-      </c>
-      <c r="F32" s="20">
-        <f t="shared" si="2"/>
-        <v>1131.6756042577294</v>
-      </c>
-      <c r="G32" s="20">
-        <f t="shared" si="3"/>
-        <v>-9.9928347990552293</v>
-      </c>
-      <c r="H32" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="11">
-        <v>1992</v>
-      </c>
-      <c r="B33" s="12">
-        <v>28</v>
-      </c>
-      <c r="C33" s="12">
-        <v>4</v>
-      </c>
-      <c r="D33" s="13">
-        <v>1077</v>
-      </c>
-      <c r="E33" s="20">
-        <f t="shared" si="1"/>
-        <v>1121.6827694586743</v>
-      </c>
-      <c r="F33" s="20">
-        <f t="shared" si="2"/>
-        <v>1096.295554109942</v>
-      </c>
-      <c r="G33" s="20">
-        <f t="shared" si="3"/>
-        <v>-20.991823551083172</v>
-      </c>
-      <c r="H33" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="H29" s="49">
+        <f t="shared" si="5"/>
+        <v>-59.456024105782717</v>
       </c>
     </row>
   </sheetData>
@@ -2847,4 +3914,685 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr syncVertical="1" syncRef="A1" transitionEvaluation="1"/>
+  <dimension ref="A1:N24"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" style="22" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" style="22" customWidth="1"/>
+    <col min="12" max="16384" width="9.7109375" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="42"/>
+    </row>
+    <row r="2" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27">
+        <v>2012</v>
+      </c>
+      <c r="B3" s="27">
+        <v>1</v>
+      </c>
+      <c r="C3" s="27">
+        <v>1</v>
+      </c>
+      <c r="D3" s="35">
+        <v>684.2</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="37">
+        <f>D3-AVERAGEA($D$3:$D$6)</f>
+        <v>-47.289078933342012</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="39">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="27">
+        <v>2</v>
+      </c>
+      <c r="C4" s="27">
+        <f t="shared" ref="C4:C22" si="0">C3+1</f>
+        <v>2</v>
+      </c>
+      <c r="D4" s="35">
+        <v>584.1</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="37">
+        <f>D4-AVERAGEA($D$3:$D$6)</f>
+        <v>-147.38907893334203</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="40">
+        <f>SUMXMY2(H7:H22,D7:D22)/COUNT(H7:H22)</f>
+        <v>17523.889260497559</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="27">
+        <v>3</v>
+      </c>
+      <c r="C5" s="27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D5" s="35">
+        <v>765.38048421453368</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="37">
+        <f>D5-AVERAGEA($D$3:$D$6)</f>
+        <v>33.891405281191624</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="39">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="27">
+        <v>4</v>
+      </c>
+      <c r="C6" s="27">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D6" s="35">
+        <v>892.27583151883448</v>
+      </c>
+      <c r="E6" s="38">
+        <f>D6-G6</f>
+        <v>731.48907893334206</v>
+      </c>
+      <c r="F6" s="38">
+        <v>0</v>
+      </c>
+      <c r="G6" s="37">
+        <f>D6-AVERAGEA($D$3:$D$6)</f>
+        <v>160.78675258549242</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="27">
+        <v>2013</v>
+      </c>
+      <c r="B7" s="27">
+        <v>1</v>
+      </c>
+      <c r="C7" s="27">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D7" s="35">
+        <v>885.4</v>
+      </c>
+      <c r="E7" s="26">
+        <f t="shared" ref="E7:E22" si="1">$K$3*(D7-G3)+(1-$K$3)*(E6+F6)</f>
+        <v>832.08907893334208</v>
+      </c>
+      <c r="F7" s="26">
+        <f t="shared" ref="F7:F22" si="2">$K$4*(E7-E6)+(1-$K$4)*F6</f>
+        <v>50.300000000000011</v>
+      </c>
+      <c r="G7" s="34">
+        <f t="shared" ref="G7:G22" si="3">$K$5*(D7-E7)+(1-$K$5)*G3</f>
+        <v>3.0109210666579429</v>
+      </c>
+      <c r="H7" s="25">
+        <f t="shared" ref="H7:H22" si="4">E6+F6+G3</f>
+        <v>684.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="27">
+        <v>2</v>
+      </c>
+      <c r="C8" s="27">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D8" s="35">
+        <v>677.0224130538038</v>
+      </c>
+      <c r="E8" s="26">
+        <f t="shared" si="1"/>
+        <v>853.40028546024394</v>
+      </c>
+      <c r="F8" s="26">
+        <f t="shared" si="2"/>
+        <v>35.805603263450934</v>
+      </c>
+      <c r="G8" s="34">
+        <f t="shared" si="3"/>
+        <v>-161.88347566989108</v>
+      </c>
+      <c r="H8" s="25">
+        <f t="shared" si="4"/>
+        <v>735</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="27">
+        <v>3</v>
+      </c>
+      <c r="C9" s="27">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D9" s="35">
+        <v>1006.6253874787303</v>
+      </c>
+      <c r="E9" s="26">
+        <f t="shared" si="1"/>
+        <v>930.96993546061685</v>
+      </c>
+      <c r="F9" s="26">
+        <f t="shared" si="2"/>
+        <v>56.687626631911925</v>
+      </c>
+      <c r="G9" s="34">
+        <f t="shared" si="3"/>
+        <v>54.773428649652544</v>
+      </c>
+      <c r="H9" s="25">
+        <f t="shared" si="4"/>
+        <v>923.09729400488652</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B10" s="27">
+        <v>4</v>
+      </c>
+      <c r="C10" s="27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D10" s="35">
+        <v>1122.0567961326187</v>
+      </c>
+      <c r="E10" s="26">
+        <f t="shared" si="1"/>
+        <v>974.46380281982761</v>
+      </c>
+      <c r="F10" s="26">
+        <f t="shared" si="2"/>
+        <v>50.090746995561339</v>
+      </c>
+      <c r="G10" s="34">
+        <f t="shared" si="3"/>
+        <v>154.18987294914177</v>
+      </c>
+      <c r="H10" s="25">
+        <f t="shared" si="4"/>
+        <v>1148.4443146780213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="27">
+        <v>2014</v>
+      </c>
+      <c r="B11" s="27">
+        <v>1</v>
+      </c>
+      <c r="C11" s="27">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D11" s="35">
+        <v>1163.3914151299891</v>
+      </c>
+      <c r="E11" s="26">
+        <f t="shared" si="1"/>
+        <v>1092.4675219393603</v>
+      </c>
+      <c r="F11" s="26">
+        <f t="shared" si="2"/>
+        <v>84.047233057547004</v>
+      </c>
+      <c r="G11" s="34">
+        <f t="shared" si="3"/>
+        <v>36.967407128643401</v>
+      </c>
+      <c r="H11" s="25">
+        <f t="shared" si="4"/>
+        <v>1027.5654708820471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B12" s="27">
+        <v>2</v>
+      </c>
+      <c r="C12" s="27">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D12" s="35">
+        <v>993.2</v>
+      </c>
+      <c r="E12" s="26">
+        <f t="shared" si="1"/>
+        <v>1165.7991153333992</v>
+      </c>
+      <c r="F12" s="26">
+        <f t="shared" si="2"/>
+        <v>78.689413225792961</v>
+      </c>
+      <c r="G12" s="34">
+        <f t="shared" si="3"/>
+        <v>-167.24129550164511</v>
+      </c>
+      <c r="H12" s="25">
+        <f t="shared" si="4"/>
+        <v>1014.631279327016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B13" s="27">
+        <v>3</v>
+      </c>
+      <c r="C13" s="27">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D13" s="35">
+        <v>1312.4649225935223</v>
+      </c>
+      <c r="E13" s="26">
+        <f t="shared" si="1"/>
+        <v>1251.090011251531</v>
+      </c>
+      <c r="F13" s="26">
+        <f t="shared" si="2"/>
+        <v>81.990154571962393</v>
+      </c>
+      <c r="G13" s="34">
+        <f t="shared" si="3"/>
+        <v>58.074169995821904</v>
+      </c>
+      <c r="H13" s="25">
+        <f t="shared" si="4"/>
+        <v>1299.2619572088447</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B14" s="27">
+        <v>4</v>
+      </c>
+      <c r="C14" s="27">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D14" s="35">
+        <v>1545.3069567055034</v>
+      </c>
+      <c r="E14" s="26">
+        <f t="shared" si="1"/>
+        <v>1362.0986247899275</v>
+      </c>
+      <c r="F14" s="26">
+        <f t="shared" si="2"/>
+        <v>96.499384055179448</v>
+      </c>
+      <c r="G14" s="34">
+        <f t="shared" si="3"/>
+        <v>168.69910243235881</v>
+      </c>
+      <c r="H14" s="25">
+        <f t="shared" si="4"/>
+        <v>1487.2700387726352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="27">
+        <v>2015</v>
+      </c>
+      <c r="B15" s="27">
+        <v>1</v>
+      </c>
+      <c r="C15" s="27">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D15" s="35">
+        <v>1596.2</v>
+      </c>
+      <c r="E15" s="26">
+        <f t="shared" si="1"/>
+        <v>1508.9153008582318</v>
+      </c>
+      <c r="F15" s="26">
+        <f t="shared" si="2"/>
+        <v>121.6580300617419</v>
+      </c>
+      <c r="G15" s="34">
+        <f t="shared" si="3"/>
+        <v>62.126053135205808</v>
+      </c>
+      <c r="H15" s="25">
+        <f t="shared" si="4"/>
+        <v>1495.5654159737503</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B16" s="27">
+        <v>2</v>
+      </c>
+      <c r="C16" s="27">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D16" s="35">
+        <v>1260.414217243964</v>
+      </c>
+      <c r="E16" s="26">
+        <f t="shared" si="1"/>
+        <v>1529.1144218327913</v>
+      </c>
+      <c r="F16" s="26">
+        <f t="shared" si="2"/>
+        <v>70.928575518150694</v>
+      </c>
+      <c r="G16" s="34">
+        <f t="shared" si="3"/>
+        <v>-217.97075004523623</v>
+      </c>
+      <c r="H16" s="25">
+        <f t="shared" si="4"/>
+        <v>1463.3320354183286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="27">
+        <v>3</v>
+      </c>
+      <c r="C17" s="27">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D17" s="35">
+        <v>1735.1553109244817</v>
+      </c>
+      <c r="E17" s="26">
+        <f t="shared" si="1"/>
+        <v>1638.5620691398008</v>
+      </c>
+      <c r="F17" s="26">
+        <f t="shared" si="2"/>
+        <v>90.188111412580071</v>
+      </c>
+      <c r="G17" s="34">
+        <f t="shared" si="3"/>
+        <v>77.333705890251409</v>
+      </c>
+      <c r="H17" s="25">
+        <f t="shared" si="4"/>
+        <v>1658.1171673467638</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="27">
+        <v>4</v>
+      </c>
+      <c r="C18" s="27">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D18" s="35">
+        <v>2029.6569911476754</v>
+      </c>
+      <c r="E18" s="26">
+        <f t="shared" si="1"/>
+        <v>1794.8540346338486</v>
+      </c>
+      <c r="F18" s="26">
+        <f t="shared" si="2"/>
+        <v>123.24003845331397</v>
+      </c>
+      <c r="G18" s="34">
+        <f t="shared" si="3"/>
+        <v>201.75102947309279</v>
+      </c>
+      <c r="H18" s="25">
+        <f t="shared" si="4"/>
+        <v>1897.4492829847397</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="27">
+        <v>2016</v>
+      </c>
+      <c r="B19" s="27">
+        <v>1</v>
+      </c>
+      <c r="C19" s="27">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D19" s="35">
+        <v>2107.7893735648445</v>
+      </c>
+      <c r="E19" s="26">
+        <f t="shared" si="1"/>
+        <v>1981.8786967584006</v>
+      </c>
+      <c r="F19" s="26">
+        <f t="shared" si="2"/>
+        <v>155.13235028893294</v>
+      </c>
+      <c r="G19" s="34">
+        <f t="shared" si="3"/>
+        <v>94.018364970824862</v>
+      </c>
+      <c r="H19" s="25">
+        <f t="shared" si="4"/>
+        <v>1980.2201262223684</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="27">
+        <v>2</v>
+      </c>
+      <c r="C20" s="27">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D20" s="35">
+        <v>1650.3</v>
+      </c>
+      <c r="E20" s="26">
+        <f t="shared" si="1"/>
+        <v>2002.6408985462849</v>
+      </c>
+      <c r="F20" s="26">
+        <f t="shared" si="2"/>
+        <v>87.947276038408646</v>
+      </c>
+      <c r="G20" s="34">
+        <f t="shared" si="3"/>
+        <v>-285.15582429576057</v>
+      </c>
+      <c r="H20" s="25">
+        <f t="shared" si="4"/>
+        <v>1919.0402970020975</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="27">
+        <v>3</v>
+      </c>
+      <c r="C21" s="27">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D21" s="35">
+        <v>2304.3966746291926</v>
+      </c>
+      <c r="E21" s="26">
+        <f t="shared" si="1"/>
+        <v>2158.8255716618173</v>
+      </c>
+      <c r="F21" s="26">
+        <f t="shared" si="2"/>
+        <v>122.06597457697052</v>
+      </c>
+      <c r="G21" s="34">
+        <f t="shared" si="3"/>
+        <v>111.45240442881334</v>
+      </c>
+      <c r="H21" s="25">
+        <f t="shared" si="4"/>
+        <v>2167.9218804749453</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="33"/>
+      <c r="B22" s="32">
+        <v>4</v>
+      </c>
+      <c r="C22" s="32">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D22" s="31">
+        <v>2639.4169722338938</v>
+      </c>
+      <c r="E22" s="30">
+        <f t="shared" si="1"/>
+        <v>2359.2787444997944</v>
+      </c>
+      <c r="F22" s="30">
+        <f t="shared" si="2"/>
+        <v>161.25957370747378</v>
+      </c>
+      <c r="G22" s="29">
+        <f t="shared" si="3"/>
+        <v>240.94462860359613</v>
+      </c>
+      <c r="H22" s="28">
+        <f t="shared" si="4"/>
+        <v>2482.6425757118805</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="25"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F24" s="24"/>
+    </row>
+  </sheetData>
+  <printOptions gridLines="1" gridLinesSet="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
 </file>